--- a/Project/testdata/krishna.xlsx
+++ b/Project/testdata/krishna.xlsx
@@ -414,15 +414,24 @@
       <c r="A2" t="str">
         <v>Furniture</v>
       </c>
+      <c r="B2" t="str">
+        <v>Electronics</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>Apparel-Clothing.html</v>
       </c>
+      <c r="B3" t="str">
+        <v>Consumer</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>Apparel &amp; Clothing</v>
+      </c>
+      <c r="B4" t="str">
+        <v>9000</v>
       </c>
     </row>
     <row r="5">
